--- a/biology/Botanique/Morchella_conica/Morchella_conica.xlsx
+++ b/biology/Botanique/Morchella_conica/Morchella_conica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Morille conique (Morchella conica), Morille noire, Morille élevée ou Morille délicieuse, est une espèce de champignons ascomycètes comestibles de la famille des Morchellaceae et du genre Morchella.
 </t>
@@ -513,12 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binominal
-Le nom binominal de l'espèce est Morchella conica Pers. 1818[1].
-Synonymes
-Les synonymes de la Morille conique sont :
-Morchella esculenta var. vulgaris (Pers.) A. Gennari 2000[2] ;
-Morchella esculenta vulgaris Pers. 1801[3].</t>
+          <t>Nom binominal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom binominal de l'espèce est Morchella conica Pers. 1818.
+</t>
         </is>
       </c>
     </row>
@@ -543,17 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sporophore
-La Morille conique a un hyménophore creux, conique pointu ou ovoïde, émoussé au sommet, parcouru par de longues côtes (généralement en séries parallèles pour les variétés de Morchella conica[4]) les alvéoles pouvant atteindre les deux tiers du chapeau, couleur du gris-beige au brun-olive foncé à noirâtre[5].
-Le stipe mesure 4 à 7 cm de haut pour 2 cm de diamètre en moyenne. Il est creux, généralement deux fois moins grand que le chapeau pour la variété elata, atténué au milieu, renflé à la base, blanc puis jaunâtre[6].
-Hyménium
-L'hyménium est constitué de courtes hyphes blanchâtres[7].
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les synonymes de la Morille conique sont :
+Morchella esculenta var. vulgaris (Pers.) A. Gennari 2000 ;
+Morchella esculenta vulgaris Pers. 1801.</t>
         </is>
       </c>
     </row>
@@ -578,12 +595,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Saison</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La saison s'achève, en France, aux environs du 15 mai. Elles poussent un peu avant le Tricholome de la Saint-Georges (Calocybe gambosa). Les Morillons peuvent encore pousser quelques semaines après[8].
+          <t>Sporophore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Morille conique a un hyménophore creux, conique pointu ou ovoïde, émoussé au sommet, parcouru par de longues côtes (généralement en séries parallèles pour les variétés de Morchella conica) les alvéoles pouvant atteindre les deux tiers du chapeau, couleur du gris-beige au brun-olive foncé à noirâtre.
+Le stipe mesure 4 à 7 cm de haut pour 2 cm de diamètre en moyenne. Il est creux, généralement deux fois moins grand que le chapeau pour la variété elata, atténué au milieu, renflé à la base, blanc puis jaunâtre.
 </t>
         </is>
       </c>
@@ -609,12 +633,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitats</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce pousse dans les frênaies sur du calcaire, dans les vergers, les terrains fraîchement bouleversés (voire les décombres et les glissements de terrain) et sur les arbres arrachés[9].
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyménium est constitué de courtes hyphes blanchâtres.
 </t>
         </is>
       </c>
@@ -640,12 +670,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Morille conique est un champignon eurasiatique[10].
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La saison s'achève, en France, aux environs du 15 mai. Elles poussent un peu avant le Tricholome de la Saint-Georges (Calocybe gambosa). Les Morillons peuvent encore pousser quelques semaines après.
 </t>
         </is>
       </c>
@@ -671,12 +703,80 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Habitats</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce pousse dans les frênaies sur du calcaire, dans les vergers, les terrains fraîchement bouleversés (voire les décombres et les glissements de terrain) et sur les arbres arrachés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Morchella_conica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_conica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Morille conique est un champignon eurasiatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Morchella_conica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_conica</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce champignons est un excellent comestible[11].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignons est un excellent comestible.
 </t>
         </is>
       </c>
